--- a/podatki/trenerji21_22.xlsx
+++ b/podatki/trenerji21_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7adbb6c384f685/Dokumenti/opb/NBA/podatki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\OneDrive\Dokumenti\opb\NBA\podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Head coach</t>
   </si>
@@ -32,63 +32,42 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Start date</t>
-  </si>
-  <si>
     <t>Nate McMillan</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>March 1, 2021</t>
-  </si>
-  <si>
     <t>Ime Udoka</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>June 28, 2021</t>
-  </si>
-  <si>
     <t>Steve Nash</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>September 3, 2020</t>
-  </si>
-  <si>
     <t>James Borrego</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
   </si>
   <si>
-    <t>May 10, 2018</t>
-  </si>
-  <si>
     <t>Billy Donovan</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>September 22, 2020</t>
-  </si>
-  <si>
     <t>J. B. Bickerstaff</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>February 19, 2020</t>
-  </si>
-  <si>
     <t>Jason Kidd</t>
   </si>
   <si>
@@ -101,207 +80,138 @@
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>June 15, 2015</t>
-  </si>
-  <si>
     <t>Dwane Casey</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>June 11, 2018</t>
-  </si>
-  <si>
     <t>Steve Kerr</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>May 19, 2014</t>
-  </si>
-  <si>
     <t>Stephen Silas</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>October 30, 2020</t>
-  </si>
-  <si>
     <t>Rick Carlisle</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>June 24, 2021</t>
-  </si>
-  <si>
     <t>Tyronn Lue</t>
   </si>
   <si>
     <t>Los Angeles Clippers</t>
   </si>
   <si>
-    <t>October 20, 2020</t>
-  </si>
-  <si>
     <t>Frank Vogel</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>May 13, 2019</t>
-  </si>
-  <si>
     <t>Taylor Jenkins</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>June 11, 2019</t>
-  </si>
-  <si>
     <t>Erik Spoelstra</t>
   </si>
   <si>
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>April 28, 2008</t>
-  </si>
-  <si>
     <t>Mike Budenholzer</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
-    <t>May 17, 2018</t>
-  </si>
-  <si>
     <t>Chris Finch</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>February 22, 2021</t>
-  </si>
-  <si>
     <t>Willie Green</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>July 22, 2021</t>
-  </si>
-  <si>
     <t>Tom Thibodeau</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>July 30, 2020</t>
-  </si>
-  <si>
     <t>Mark Daigneault</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>November 11, 2020</t>
-  </si>
-  <si>
     <t>Jamahl Mosley</t>
   </si>
   <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>July 11, 2021</t>
-  </si>
-  <si>
     <t>Doc Rivers</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>October 3, 2020</t>
-  </si>
-  <si>
     <t>Monty Williams</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>May 3, 2019</t>
-  </si>
-  <si>
     <t>Chauncey Billups</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>June 27, 2021</t>
-  </si>
-  <si>
     <t>Luke Walton</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>April 14, 2019</t>
-  </si>
-  <si>
     <t>Gregg Popovich</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>December 10, 1996</t>
-  </si>
-  <si>
     <t>Nick Nurse</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>June 14, 2018</t>
-  </si>
-  <si>
     <t>Quin Snyder</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>June 6, 2014</t>
-  </si>
-  <si>
     <t>Wes Unseld Jr.</t>
   </si>
   <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>July 17, 2021</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -393,13 +303,28 @@
   </si>
   <si>
     <t>WAS</t>
+  </si>
+  <si>
+    <t>število let trener</t>
+  </si>
+  <si>
+    <t>število let pri ekipi</t>
+  </si>
+  <si>
+    <t>zmage v karieri</t>
+  </si>
+  <si>
+    <t>porazi v karieri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,16 +333,333 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -425,16 +667,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % – Poudarek1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – Poudarek2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – Poudarek3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – Poudarek4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – Poudarek5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – Poudarek6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – Poudarek1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – Poudarek2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – Poudarek3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – Poudarek4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – Poudarek5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – Poudarek6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – Poudarek1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – Poudarek2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – Poudarek3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – Poudarek4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – Poudarek5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – Poudarek6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Dobro" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Izhod" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Naslov" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Naslov 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Naslov 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Naslov 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Naslov 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Nevtralno" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Opomba" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Opozorilo" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Pojasnjevalno besedilo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Poudarek1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Poudarek2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Poudarek3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Poudarek4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Poudarek5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Poudarek6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Povezana celica" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Preveri celico" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Računanje" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Slabo" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Vnos" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Vsota" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,445 +1167,742 @@
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5">
+        <v>731</v>
+      </c>
+      <c r="G2" s="6">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>92</v>
+      </c>
+      <c r="G4" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>320</v>
+      </c>
+      <c r="G5" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>148</v>
+      </c>
+      <c r="G6" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
+        <v>156</v>
+      </c>
+      <c r="G7" s="6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>235</v>
+      </c>
+      <c r="G8" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>353</v>
+      </c>
+      <c r="G9" s="6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5">
+        <v>477</v>
+      </c>
+      <c r="G10" s="6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>429</v>
+      </c>
+      <c r="G11" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>37</v>
+      </c>
+      <c r="G12" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5">
+        <v>861</v>
+      </c>
+      <c r="G13" s="6">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5">
+        <v>217</v>
+      </c>
+      <c r="G14" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5">
+        <v>431</v>
+      </c>
+      <c r="G15" s="6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>128</v>
+      </c>
+      <c r="G16" s="6">
         <v>99</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5">
+        <v>660</v>
+      </c>
+      <c r="G17" s="6">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>426</v>
+      </c>
+      <c r="G18" s="6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>62</v>
+      </c>
+      <c r="G19" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5">
+        <v>430</v>
+      </c>
+      <c r="G21" s="6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>46</v>
+      </c>
+      <c r="G22" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G23" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1043</v>
+      </c>
+      <c r="G24" s="6">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="F25" s="5">
+        <v>322</v>
+      </c>
+      <c r="G25" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>27</v>
+      </c>
+      <c r="G26" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5">
+        <v>166</v>
+      </c>
+      <c r="G27" s="6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5">
+        <v>534</v>
+      </c>
+      <c r="G28" s="6">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="E29" s="3">
+        <v>26</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1344</v>
+      </c>
+      <c r="G29" s="6">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>186</v>
+      </c>
+      <c r="G30" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5">
+        <v>372</v>
+      </c>
+      <c r="G31" s="6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="G32" s="6">
         <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/podatki/trenerji21_22.xlsx
+++ b/podatki/trenerji21_22.xlsx
@@ -322,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -822,7 +822,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,13 +1207,13 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>18</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>731</v>
       </c>
       <c r="G2" s="6">
@@ -1230,13 +1230,13 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>51</v>
       </c>
       <c r="G3" s="6">
@@ -1253,13 +1253,13 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>92</v>
       </c>
       <c r="G4" s="6">
@@ -1276,13 +1276,13 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>320</v>
       </c>
       <c r="G5" s="6">
@@ -1299,13 +1299,13 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>148</v>
       </c>
       <c r="G6" s="6">
@@ -1322,13 +1322,13 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>156</v>
       </c>
       <c r="G7" s="6">
@@ -1345,13 +1345,13 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>235</v>
       </c>
       <c r="G8" s="6">
@@ -1368,13 +1368,13 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>353</v>
       </c>
       <c r="G9" s="6">
@@ -1391,13 +1391,13 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>13</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>477</v>
       </c>
       <c r="G10" s="6">
@@ -1414,13 +1414,13 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>429</v>
       </c>
       <c r="G11" s="6">
@@ -1437,13 +1437,13 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>37</v>
       </c>
       <c r="G12" s="6">
@@ -1460,13 +1460,13 @@
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>20</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>861</v>
       </c>
       <c r="G13" s="6">
@@ -1483,13 +1483,13 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>6</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>217</v>
       </c>
       <c r="G14" s="6">
@@ -1506,13 +1506,13 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>11</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>431</v>
       </c>
       <c r="G15" s="6">
@@ -1529,13 +1529,13 @@
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>128</v>
       </c>
       <c r="G16" s="6">
@@ -1552,13 +1552,13 @@
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>14</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>14</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>660</v>
       </c>
       <c r="G17" s="6">
@@ -1575,13 +1575,13 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>426</v>
       </c>
       <c r="G18" s="6">
@@ -1598,13 +1598,13 @@
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>62</v>
       </c>
       <c r="G19" s="6">
@@ -1621,13 +1621,13 @@
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>36</v>
       </c>
       <c r="G20" s="6">
@@ -1644,13 +1644,13 @@
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <v>10</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>430</v>
       </c>
       <c r="G21" s="6">
@@ -1667,13 +1667,13 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>46</v>
       </c>
       <c r="G22" s="6">
@@ -1690,13 +1690,13 @@
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>22</v>
       </c>
       <c r="G23" s="6">
@@ -1713,13 +1713,13 @@
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <v>23</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>1043</v>
       </c>
       <c r="G24" s="6">
@@ -1736,13 +1736,13 @@
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="6">
         <v>8</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <v>322</v>
       </c>
       <c r="G25" s="6">
@@ -1759,13 +1759,13 @@
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <v>27</v>
       </c>
       <c r="G26" s="6">
@@ -1782,13 +1782,13 @@
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>3</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <v>6</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <v>166</v>
       </c>
       <c r="G27" s="6">
@@ -1805,17 +1805,17 @@
       <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5">
-        <v>534</v>
+      <c r="D28" s="6">
+        <v>26</v>
+      </c>
+      <c r="E28" s="6">
+        <v>26</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1344</v>
       </c>
       <c r="G28" s="6">
-        <v>636</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1828,17 +1828,17 @@
       <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="4">
-        <v>26</v>
-      </c>
-      <c r="E29" s="3">
-        <v>26</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1344</v>
+      <c r="D29" s="6">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>186</v>
       </c>
       <c r="G29" s="6">
-        <v>701</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1851,17 +1851,17 @@
       <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5">
-        <v>186</v>
+      <c r="D30" s="6">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6">
+        <v>372</v>
       </c>
       <c r="G30" s="6">
-        <v>122</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1874,32 +1874,24 @@
       <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>8</v>
-      </c>
-      <c r="F31" s="5">
-        <v>372</v>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>35</v>
       </c>
       <c r="G31" s="6">
-        <v>264</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
-        <v>35</v>
-      </c>
-      <c r="G32" s="6">
-        <v>47</v>
-      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
